--- a/individual_case_outputs/avey/499.xlsx
+++ b/individual_case_outputs/avey/499.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>lymphedema</t>
+          <t>elephantiasis / filariasis</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>deep venous thrombosis</t>
+          <t>chronic venous insufficiency</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
